--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6801FEE1-91AC-4E49-9BCC-7157EC64BAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92448E49-BABA-44B7-9101-7D21C81E95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="211">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -507,9 +507,6 @@
     <t>silica</t>
   </si>
   <si>
-    <t>methane_micro_mol_per_g_dm</t>
-  </si>
-  <si>
     <t>micro_mol_per_g_dm</t>
   </si>
   <si>
@@ -528,51 +525,18 @@
     <t>levels if the variable is a factor (in wide format)</t>
   </si>
   <si>
-    <t>ms_id</t>
-  </si>
-  <si>
-    <t>ms_mg</t>
-  </si>
-  <si>
-    <t>gs_id</t>
-  </si>
-  <si>
-    <t>gs_mg</t>
-  </si>
-  <si>
-    <t>conc_id</t>
-  </si>
-  <si>
-    <t>conc_mg</t>
-  </si>
-  <si>
-    <t>trt_add_2_micro_gram_per_ml</t>
-  </si>
-  <si>
-    <t>trt_add_2_micro_liter</t>
-  </si>
-  <si>
-    <t>trt_add_3_micro_gram_per_ml</t>
-  </si>
-  <si>
     <t>trt_add_4</t>
   </si>
   <si>
     <t>trt_add_4_mg</t>
   </si>
   <si>
-    <t>trt_add_4_micro_gram_per_ml</t>
-  </si>
-  <si>
     <t>neg_cnt</t>
   </si>
   <si>
     <t>pos_cnt_1</t>
   </si>
   <si>
-    <t>pos_cnt_1_micro_mol_per_ml</t>
-  </si>
-  <si>
     <t>solv_1</t>
   </si>
   <si>
@@ -642,39 +606,9 @@
     <t>ph_b_rf</t>
   </si>
   <si>
-    <t>ch4_umol_gdm</t>
-  </si>
-  <si>
-    <t>h2_umol_gdm</t>
-  </si>
-  <si>
-    <t>total_vfa_umol_gdm</t>
-  </si>
-  <si>
     <t>methane_vfa_mol_mol</t>
   </si>
   <si>
-    <t>acetate_umol_gdm</t>
-  </si>
-  <si>
-    <t>propionate_umol_gdm</t>
-  </si>
-  <si>
-    <t>isobutyrate_umol_gdm</t>
-  </si>
-  <si>
-    <t>butyrate_umol_gdm</t>
-  </si>
-  <si>
-    <t>isovalerate_umol_gdm</t>
-  </si>
-  <si>
-    <t>valerate_umol_gdm</t>
-  </si>
-  <si>
-    <t>caproate_umol_gdm</t>
-  </si>
-  <si>
     <t>acetate_percent</t>
   </si>
   <si>
@@ -697,6 +631,54 @@
   </si>
   <si>
     <t>ardom_percent</t>
+  </si>
+  <si>
+    <t>trt_add_2_ug_per_ml</t>
+  </si>
+  <si>
+    <t>trt_add_2_ul</t>
+  </si>
+  <si>
+    <t>trt_add_3_ug_per_ml</t>
+  </si>
+  <si>
+    <t>trt_add_4_ug_per_ml</t>
+  </si>
+  <si>
+    <t>methane_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>pos_cnt_1_umol_per_ml</t>
+  </si>
+  <si>
+    <t>ch4_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>h2_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>total_vfa_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>acetate_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>propionate_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>isobutyrate_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>butyrate_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>isovalerate_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>valerate_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>caproate_umol_per_g_dm</t>
   </si>
 </sst>
 </file>
@@ -2121,13 +2103,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE468F5-6397-4C82-931F-B2CE02F46428}">
-  <dimension ref="A1:DB73"/>
+  <dimension ref="A1:DB67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2686,12 +2668,12 @@
     </row>
     <row r="12" spans="1:106">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:106">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:106">
@@ -2745,27 +2727,27 @@
     </row>
     <row r="16" spans="1:106">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
         <v>112</v>
@@ -2777,15 +2759,15 @@
         <v>110</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
         <v>112</v>
@@ -2797,25 +2779,25 @@
         <v>110</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2825,242 +2807,212 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_results/lanupro_vocabulary_incubations.xlsx
+++ b/data/raw_results/lanupro_vocabulary_incubations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_github_projects\lanupro_vocabulary_2025\data\raw_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92448E49-BABA-44B7-9101-7D21C81E95C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3562255-0EC7-4208-8BF1-5666139C7AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06EA7712-9BA5-4E3A-B464-81F94650D082}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="210">
   <si>
     <t>lanupro_ontology</t>
   </si>
@@ -510,9 +510,6 @@
     <t>micro_mol_per_g_dm</t>
   </si>
   <si>
-    <t>methane_mol_per_mol_vfa</t>
-  </si>
-  <si>
     <t>mol_per_mol_vfa</t>
   </si>
   <si>
@@ -606,9 +603,6 @@
     <t>ph_b_rf</t>
   </si>
   <si>
-    <t>methane_vfa_mol_mol</t>
-  </si>
-  <si>
     <t>acetate_percent</t>
   </si>
   <si>
@@ -645,9 +639,6 @@
     <t>trt_add_4_ug_per_ml</t>
   </si>
   <si>
-    <t>methane_umol_per_g_dm</t>
-  </si>
-  <si>
     <t>pos_cnt_1_umol_per_ml</t>
   </si>
   <si>
@@ -679,6 +670,12 @@
   </si>
   <si>
     <t>caproate_umol_per_g_dm</t>
+  </si>
+  <si>
+    <t>ch4_vfa_mol_mol</t>
+  </si>
+  <si>
+    <t>ch4_mol_per_mol_vfa</t>
   </si>
 </sst>
 </file>
@@ -2106,10 +2103,10 @@
   <dimension ref="A1:DB67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2668,12 +2665,12 @@
     </row>
     <row r="12" spans="1:106">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:106">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:106">
@@ -2727,27 +2724,27 @@
     </row>
     <row r="16" spans="1:106">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28.8">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>112</v>
@@ -2759,7 +2756,7 @@
         <v>110</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
         <v>153</v>
@@ -2767,7 +2764,7 @@
     </row>
     <row r="21" spans="1:6" ht="28.8">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
         <v>112</v>
@@ -2779,240 +2776,240 @@
         <v>110</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3219,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
